--- a/temp.xlsx
+++ b/temp.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,12 +425,813 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="10" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>设备类型</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>UniqueCode</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>使用场景</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>使用日期</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>内部设备编号</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>华能设备编码</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>安装地点</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>所属矿山</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>技术特征</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>是否为大型设备</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>生产厂家</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>设备状态</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>责任单位/责任人</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>采煤工作面设备</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>MG620/1660-WD采煤机</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>0211010001</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>212301上工作面</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2021.6</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>21-01</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>0000010534</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr"/>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>西一采区212301上工作面</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>灵东煤矿</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>装机功率2×620 +2×120+2×30+120=1660kW摇臂摆动中心距8500 mm截深865 mm供电电压3300V，50Hz适应煤层倾角≤35°，控制方式交流变频调速,齿轮销排式无链牵引，牵引力，873～535 kN，牵引速度0～14～28 m/min，摇臂长度2774，摇臂摆角-22°—+40°</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>西安煤矿机械有限公司</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>在用</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>SGZ1000/2400前部刮板机</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>0211010002</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>212301上工作面</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>2021.6</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>21-203</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>0000019592</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr"/>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>西一采区212301上工作面</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>灵东煤矿</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>标准长度50m，输送能力3000t/h，装机功率2*1200KW，刮板链速1.45m/s，电动机型号YBSS-1200（BP），额定功率1200KW，额定电压3300V，冷却方式水冷，中部槽规格(长*内宽*高)1750*1200*376mm，结构型式铸焊封底，联接方式哑铃，联接强度4000kN，刮板链链规格48*152 紧凑链，型式中心双链，链中心距卸载方式端卸，紧链方式液压马达紧链、液压伸缩机尾辅助紧链</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>中煤张家口煤矿机械有限公司</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>在用</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>SGZ1200/2400后部刮板机</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>0211010003</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>212301上工作面</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>2021.6</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>21-204</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>0000019593</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr"/>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>西一采区212301上工作面</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>灵东煤矿</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>标准长度50m，输送能力3000t/h，装机功率2*1200KW，刮板链速1.45m/s，电动机型号YBSS-1200（BP），额定功率1200KW，额定电压3300V，冷却方式水冷，中部槽规格(长*内宽*高)1750*1200*376mm，结构型式铸焊封底，联接方式哑铃，联接强度4000kN，刮板链链规格48*152 紧凑链，型式中心双链，链中心距卸载方式端卸，紧链方式液压马达紧链、液压伸缩机尾辅助紧链</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>中煤张家口煤矿机械有限公司</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>在用</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>ZF15000/25/40D基本液压支架</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>0211010004</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>212301上工作面</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>2021.6</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>21-01、151</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>0000011004</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>西一采区212301上工作面</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>灵东煤矿</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>运输尺寸：7391×1430×2500；工作阻力：15000KN；支架高度：2500-4000mm；支护强度：1.4Mpa；</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>中煤北京煤矿机械有限责任公司</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>在用</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>ZFG18000/26/40D过渡液压支架</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>0211010005</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>212301上工作面</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>2021.6</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>21-153、161</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>0000010507</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>西一采区212301上工作面</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>灵东煤矿</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>运输尺寸：8445×1600×2500；工作阻力：13000KN；支架高度：2600-4000mm；支护强度：1.23Mpa；</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>郑州煤矿机械有限责任公司</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>在用</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>ZTZ32000/24/45D端头液压支架</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>0211010006</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>212301上工作面</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>2021.6</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>21-162</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>0000010553</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr"/>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>灵东煤矿</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>工作阻力：32000kN；支架高度：2300-4800mm；支护强度：0.55-0.6Mpa；</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>郑州煤矿机械有限责任公司</t>
+        </is>
+      </c>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>在用</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>西一采区212301上工作面</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>ZTC10000/23/48D超前液压支架</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>0211010007</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>212301上工作面</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>2021.6</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>21-163、171</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>0000010506</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>西一采区212301上工作面</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>灵东煤矿</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>运输尺寸：3810×1475×2500；工作阻力：10000KN；支护强度：0.57MPa；支架高度：2600-4000m；</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>郑州煤矿机械有限责任公司</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>在用</t>
+        </is>
+      </c>
+      <c r="P8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>SZZ1350/1000转载机</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>0211010008</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>212301上工作面</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>2021.6</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>21-26</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>0000010315</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>西一采区212301上工作面</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>灵东煤矿</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>设计长度 80m，出厂长度 71m，输送量 4000t/h，刮板链速2m/s，爬坡角度8°，爬坡高度1.63 m，电动机型号YBSS-1000/3300，功率1000，转速1490r/min，电压3300V</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>宁夏天地重型装备科技有限公司</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>在用</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>PLM4500顺槽用破碎机</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>0211010009</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>212301上工作面</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>2021.6</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>21-04</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>0000010335</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr"/>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>西一采区212301上工作面</t>
+        </is>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>灵东煤矿</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>破碎能力4500t/h，  最大输入块度600×1200mm，排出粒度300mm(以下)，传动型式单速电动机+液力偶合器+减速器</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t>宁夏天地重型装备科技有限公司</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="inlineStr">
+        <is>
+          <t>在用</t>
+        </is>
+      </c>
+      <c r="P10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>DSJ140/300/2×560带式输送机</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>0211010010</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>212301上工作面</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>2021.6</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>21-46</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>0000007728</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="inlineStr">
+        <is>
+          <t>灵东煤矿</t>
+        </is>
+      </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>额定运输量：Ｑ＝3000 吨/小时；带宽1400毫米；带速4米/秒</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>宁夏西北煤矿机械制造有限责任公司</t>
+        </is>
+      </c>
+      <c r="N11" s="1" t="inlineStr">
+        <is>
+          <t>在用</t>
+        </is>
+      </c>
+      <c r="O11" s="1" t="n"/>
+      <c r="P11" s="1" t="inlineStr">
+        <is>
+          <t>西一采区212301上工作面</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>